--- a/data/112/BOE/IRBY/Official Bank Rate - Q.xlsx
+++ b/data/112/BOE/IRBY/Official Bank Rate - Q.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,33 +415,33 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 21</t>
+          <t>31 Mar 22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1234</v>
+        <v>0.4563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 21</t>
+          <t>31 Dec 21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1</v>
+        <v>0.1234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 21</t>
+          <t>30 Sep 21</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -454,7 +454,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 21</t>
+          <t>30 Jun 21</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -467,7 +467,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 20</t>
+          <t>31 Mar 21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -480,7 +480,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 20</t>
+          <t>31 Dec 20</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -493,7 +493,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 20</t>
+          <t>30 Sep 20</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -506,11 +506,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 20</t>
+          <t>30 Jun 20</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6117</v>
+        <v>0.1</v>
       </c>
       <c r="C12" t="n">
         <v>0.1</v>
@@ -519,20 +519,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 19</t>
+          <t>31 Mar 20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.75</v>
+        <v>0.6117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 19</t>
+          <t>31 Dec 19</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -545,7 +545,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 19</t>
+          <t>30 Sep 19</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -558,7 +558,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 19</t>
+          <t>30 Jun 19</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -571,7 +571,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 18</t>
+          <t>31 Mar 19</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -584,11 +584,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 18</t>
+          <t>31 Dec 18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6602</v>
+        <v>0.75</v>
       </c>
       <c r="C18" t="n">
         <v>0.75</v>
@@ -597,20 +597,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 18</t>
+          <t>30 Sep 18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5</v>
+        <v>0.6602</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 18</t>
+          <t>30 Jun 18</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -623,11 +623,11 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 17</t>
+          <t>31 Mar 18</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4087</v>
+        <v>0.5</v>
       </c>
       <c r="C21" t="n">
         <v>0.5</v>
@@ -636,20 +636,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 17</t>
+          <t>31 Dec 17</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.25</v>
+        <v>0.4087</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 17</t>
+          <t>30 Sep 17</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -662,7 +662,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 17</t>
+          <t>30 Jun 17</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -675,7 +675,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 16</t>
+          <t>31 Mar 17</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,11 +688,11 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 16</t>
+          <t>31 Dec 16</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3423</v>
+        <v>0.25</v>
       </c>
       <c r="C26" t="n">
         <v>0.25</v>
@@ -701,20 +701,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 16</t>
+          <t>30 Sep 16</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5</v>
+        <v>0.3423</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 16</t>
+          <t>30 Jun 16</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -727,7 +727,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 15</t>
+          <t>31 Mar 16</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -740,7 +740,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 15</t>
+          <t>31 Dec 15</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -753,7 +753,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 15</t>
+          <t>30 Sep 15</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -766,7 +766,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 15</t>
+          <t>30 Jun 15</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -779,7 +779,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 14</t>
+          <t>31 Mar 15</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -792,7 +792,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 14</t>
+          <t>31 Dec 14</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -805,7 +805,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 14</t>
+          <t>30 Sep 14</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -818,7 +818,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 14</t>
+          <t>30 Jun 14</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -831,7 +831,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 13</t>
+          <t>31 Mar 14</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -844,7 +844,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 13</t>
+          <t>31 Dec 13</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -857,7 +857,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 13</t>
+          <t>30 Sep 13</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -870,7 +870,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 13</t>
+          <t>30 Jun 13</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -883,7 +883,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 12</t>
+          <t>31 Mar 13</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -896,7 +896,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 12</t>
+          <t>31 Dec 12</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -909,7 +909,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 12</t>
+          <t>30 Sep 12</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -922,7 +922,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 12</t>
+          <t>30 Jun 12</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -935,7 +935,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 11</t>
+          <t>31 Mar 12</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -948,7 +948,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 11</t>
+          <t>31 Dec 11</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -961,7 +961,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 11</t>
+          <t>30 Sep 11</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -974,7 +974,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 11</t>
+          <t>30 Jun 11</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -987,7 +987,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 10</t>
+          <t>31 Mar 11</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1000,7 +1000,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 10</t>
+          <t>31 Dec 10</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1013,7 +1013,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 10</t>
+          <t>30 Sep 10</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1026,7 +1026,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 10</t>
+          <t>30 Jun 10</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1039,7 +1039,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 09</t>
+          <t>31 Mar 10</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1052,7 +1052,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 09</t>
+          <t>31 Dec 09</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1065,7 +1065,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 09</t>
+          <t>30 Sep 09</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1078,11 +1078,11 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 09</t>
+          <t>30 Jun 09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.0714</v>
+        <v>0.5</v>
       </c>
       <c r="C56" t="n">
         <v>0.5</v>
@@ -1091,37 +1091,37 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 08</t>
+          <t>31 Mar 09</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.3672</v>
+        <v>1.0714</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 08</t>
+          <t>31 Dec 08</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5</v>
+        <v>3.3672</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 08</t>
+          <t>30 Sep 08</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.0278</v>
+        <v>5</v>
       </c>
       <c r="C59" t="n">
         <v>5</v>
@@ -1130,111 +1130,111 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 08</t>
+          <t>30 Jun 08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.3548</v>
+        <v>5.0278</v>
       </c>
       <c r="C60" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 07</t>
+          <t>31 Mar 08</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5.6875</v>
+        <v>5.3548</v>
       </c>
       <c r="C61" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 07</t>
+          <t>31 Dec 07</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5.7383</v>
+        <v>5.6875</v>
       </c>
       <c r="C62" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 07</t>
+          <t>30 Sep 07</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5.3975</v>
+        <v>5.7383</v>
       </c>
       <c r="C63" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 07</t>
+          <t>30 Jun 07</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5.2227</v>
+        <v>5.3975</v>
       </c>
       <c r="C64" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 06</t>
+          <t>31 Mar 07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.8889</v>
+        <v>5.2227</v>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 06</t>
+          <t>31 Dec 06</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.6602</v>
+        <v>4.8889</v>
       </c>
       <c r="C66" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 06</t>
+          <t>30 Sep 06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.5</v>
+        <v>4.6602</v>
       </c>
       <c r="C67" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 06</t>
+          <t>30 Jun 06</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1247,7 +1247,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 05</t>
+          <t>31 Mar 06</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1260,11 +1260,11 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 05</t>
+          <t>31 Dec 05</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.5923</v>
+        <v>4.5</v>
       </c>
       <c r="C70" t="n">
         <v>4.5</v>
@@ -1273,20 +1273,20 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 05</t>
+          <t>30 Sep 05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.75</v>
+        <v>4.5923</v>
       </c>
       <c r="C71" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 05</t>
+          <t>30 Jun 05</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1299,7 +1299,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 04</t>
+          <t>31 Mar 05</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1312,11 +1312,11 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 04</t>
+          <t>31 Dec 04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.6538</v>
+        <v>4.75</v>
       </c>
       <c r="C74" t="n">
         <v>4.75</v>
@@ -1325,76 +1325,76 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 04</t>
+          <t>30 Sep 04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.2213</v>
+        <v>4.6538</v>
       </c>
       <c r="C75" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 04</t>
+          <t>30 Jun 04</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.9063</v>
+        <v>4.2213</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 03</t>
+          <t>31 Mar 04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.6484</v>
+        <v>3.9063</v>
       </c>
       <c r="C77" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 03</t>
+          <t>31 Dec 03</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.5269</v>
+        <v>3.6484</v>
       </c>
       <c r="C78" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 03</t>
+          <t>30 Sep 03</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.75</v>
+        <v>3.5269</v>
       </c>
       <c r="C79" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 03</t>
+          <t>30 Jun 03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.8492</v>
+        <v>3.75</v>
       </c>
       <c r="C80" t="n">
         <v>3.75</v>
@@ -1403,20 +1403,20 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 02</t>
+          <t>31 Mar 03</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>3.8492</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 02</t>
+          <t>31 Dec 02</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1429,7 +1429,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 02</t>
+          <t>30 Sep 02</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1442,7 +1442,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 02</t>
+          <t>30 Jun 02</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1455,11 +1455,11 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 01</t>
+          <t>31 Mar 02</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4.2305</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
@@ -1468,59 +1468,59 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 01</t>
+          <t>31 Dec 01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5.0547</v>
+        <v>4.2305</v>
       </c>
       <c r="C86" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 01</t>
+          <t>30 Sep 01</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5.3648</v>
+        <v>5.0547</v>
       </c>
       <c r="C87" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 01</t>
+          <t>30 Jun 01</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5.8555</v>
+        <v>5.3648</v>
       </c>
       <c r="C88" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 00</t>
+          <t>31 Mar 01</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6</v>
+        <v>5.8555</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 00</t>
+          <t>31 Dec 00</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1533,7 +1533,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 00</t>
+          <t>30 Sep 00</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1546,11 +1546,11 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 00</t>
+          <t>30 Jun 00</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5.8672</v>
+        <v>6</v>
       </c>
       <c r="C92" t="n">
         <v>6</v>
@@ -1559,89 +1559,89 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 99</t>
+          <t>31 Mar 00</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5.4048</v>
+        <v>5.8672</v>
       </c>
       <c r="C93" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 99</t>
+          <t>31 Dec 99</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5.0654</v>
+        <v>5.4048</v>
       </c>
       <c r="C94" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 99</t>
+          <t>30 Sep 99</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5.2008</v>
+        <v>5.0654</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 99</t>
+          <t>30 Jun 99</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5.6944</v>
+        <v>5.2008</v>
       </c>
       <c r="C96" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 98</t>
+          <t>31 Mar 99</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6.8555</v>
+        <v>5.6944</v>
       </c>
       <c r="C97" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 98</t>
+          <t>31 Dec 98</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7.5</v>
+        <v>6.8555</v>
       </c>
       <c r="C98" t="n">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 98</t>
+          <t>30 Sep 98</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7.3279</v>
+        <v>7.5</v>
       </c>
       <c r="C99" t="n">
         <v>7.5</v>
@@ -1650,24 +1650,24 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 98</t>
+          <t>30 Jun 98</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7.25</v>
+        <v>7.3279</v>
       </c>
       <c r="C100" t="n">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 97</t>
+          <t>31 Mar 98</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7.1484</v>
+        <v>7.25</v>
       </c>
       <c r="C101" t="n">
         <v>7.25</v>
@@ -1676,50 +1676,50 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 97</t>
+          <t>31 Dec 97</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6.8692</v>
+        <v>7.1484</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 97</t>
+          <t>30 Sep 97</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.1984</v>
+        <v>6.8692</v>
       </c>
       <c r="C103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 97</t>
+          <t>30 Jun 97</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5.9375</v>
+        <v>6.1984</v>
       </c>
       <c r="C104" t="n">
-        <v>5.9375</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 96</t>
+          <t>31 Mar 97</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5.8555</v>
+        <v>5.9375</v>
       </c>
       <c r="C105" t="n">
         <v>5.9375</v>
@@ -1728,24 +1728,24 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 96</t>
+          <t>31 Dec 96</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5.6875</v>
+        <v>5.8555</v>
       </c>
       <c r="C106" t="n">
-        <v>5.6875</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 96</t>
+          <t>30 Sep 96</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5.8678</v>
+        <v>5.6875</v>
       </c>
       <c r="C107" t="n">
         <v>5.6875</v>
@@ -1754,46 +1754,46 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 96</t>
+          <t>30 Jun 96</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6.125</v>
+        <v>5.8678</v>
       </c>
       <c r="C108" t="n">
-        <v>5.9375</v>
+        <v>5.6875</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 95</t>
+          <t>31 Mar 96</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6.5813</v>
+        <v>6.125</v>
       </c>
       <c r="C109" t="n">
-        <v>6.375</v>
+        <v>5.9375</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 95</t>
+          <t>31 Dec 95</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6.625</v>
+        <v>6.5813</v>
       </c>
       <c r="C110" t="n">
-        <v>6.625</v>
+        <v>6.375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 95</t>
+          <t>30 Sep 95</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1806,11 +1806,11 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 95</t>
+          <t>30 Jun 95</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>6.4531</v>
+        <v>6.625</v>
       </c>
       <c r="C112" t="n">
         <v>6.625</v>
@@ -1819,50 +1819,50 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 94</t>
+          <t>31 Mar 95</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>5.752</v>
+        <v>6.4531</v>
       </c>
       <c r="C113" t="n">
-        <v>6.125</v>
+        <v>6.625</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 94</t>
+          <t>31 Dec 94</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5.2404</v>
+        <v>5.752</v>
       </c>
       <c r="C114" t="n">
-        <v>5.625</v>
+        <v>6.125</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 94</t>
+          <t>30 Sep 94</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5.125</v>
+        <v>5.2404</v>
       </c>
       <c r="C115" t="n">
-        <v>5.125</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 94</t>
+          <t>30 Jun 94</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5.2242</v>
+        <v>5.125</v>
       </c>
       <c r="C116" t="n">
         <v>5.125</v>
@@ -1871,33 +1871,33 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 93</t>
+          <t>31 Mar 94</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5.6641</v>
+        <v>5.2242</v>
       </c>
       <c r="C117" t="n">
-        <v>5.375</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 93</t>
+          <t>31 Dec 93</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>5.875</v>
+        <v>5.6641</v>
       </c>
       <c r="C118" t="n">
-        <v>5.875</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 93</t>
+          <t>30 Sep 93</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1910,11 +1910,11 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 93</t>
+          <t>30 Jun 93</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6.129</v>
+        <v>5.875</v>
       </c>
       <c r="C120" t="n">
         <v>5.875</v>
@@ -1923,59 +1923,59 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 92</t>
+          <t>31 Mar 93</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7.5313</v>
+        <v>6.129</v>
       </c>
       <c r="C121" t="n">
-        <v>6.875</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 92</t>
+          <t>31 Dec 92</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>9.767300000000001</v>
+        <v>7.5313</v>
       </c>
       <c r="C122" t="n">
-        <v>8.875</v>
+        <v>6.875</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 92</t>
+          <t>30 Sep 92</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>10.0471</v>
+        <v>9.767300000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>9.875</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 92</t>
+          <t>30 Jun 92</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>10.375</v>
+        <v>10.0471</v>
       </c>
       <c r="C124" t="n">
-        <v>10.375</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 91</t>
+          <t>31 Mar 92</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -1988,11 +1988,11 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 91</t>
+          <t>31 Dec 91</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>10.7981</v>
+        <v>10.375</v>
       </c>
       <c r="C126" t="n">
         <v>10.375</v>
@@ -2001,59 +2001,59 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 91</t>
+          <t>30 Sep 91</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>11.7379</v>
+        <v>10.7981</v>
       </c>
       <c r="C127" t="n">
-        <v>11.375</v>
+        <v>10.375</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 91</t>
+          <t>30 Jun 91</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>13.3992</v>
+        <v>11.7379</v>
       </c>
       <c r="C128" t="n">
-        <v>12.375</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 90</t>
+          <t>31 Mar 91</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>13.9531</v>
+        <v>13.3992</v>
       </c>
       <c r="C129" t="n">
-        <v>13.875</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 90</t>
+          <t>31 Dec 90</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>14.875</v>
+        <v>13.9531</v>
       </c>
       <c r="C130" t="n">
-        <v>14.875</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 90</t>
+          <t>30 Sep 90</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2066,7 +2066,7 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 90</t>
+          <t>30 Jun 90</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2079,11 +2079,11 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 89</t>
+          <t>31 Mar 90</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>14.8036</v>
+        <v>14.875</v>
       </c>
       <c r="C133" t="n">
         <v>14.875</v>
@@ -2092,24 +2092,24 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 89</t>
+          <t>31 Dec 89</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>13.7607</v>
+        <v>14.8036</v>
       </c>
       <c r="C134" t="n">
-        <v>13.75</v>
+        <v>14.875</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 89</t>
+          <t>30 Sep 89</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>13.2361</v>
+        <v>13.7607</v>
       </c>
       <c r="C135" t="n">
         <v>13.75</v>
@@ -2118,24 +2118,24 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 89</t>
+          <t>30 Jun 89</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>12.875</v>
+        <v>13.2361</v>
       </c>
       <c r="C136" t="n">
-        <v>12.875</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 88</t>
+          <t>31 Mar 89</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>12.256</v>
+        <v>12.875</v>
       </c>
       <c r="C137" t="n">
         <v>12.875</v>
@@ -2144,50 +2144,50 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 88</t>
+          <t>31 Dec 88</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10.9058</v>
+        <v>12.256</v>
       </c>
       <c r="C138" t="n">
-        <v>11.875</v>
+        <v>12.875</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 88</t>
+          <t>30 Sep 88</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7.9652</v>
+        <v>10.9058</v>
       </c>
       <c r="C139" t="n">
-        <v>8.875</v>
+        <v>11.875</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 88</t>
+          <t>30 Jun 88</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>8.6328</v>
+        <v>7.9652</v>
       </c>
       <c r="C140" t="n">
-        <v>8.375</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 87</t>
+          <t>31 Mar 88</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>9.039099999999999</v>
+        <v>8.6328</v>
       </c>
       <c r="C141" t="n">
         <v>8.375</v>
@@ -2196,76 +2196,76 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 87</t>
+          <t>31 Dec 87</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>9.475</v>
+        <v>9.039099999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>9.875</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 87</t>
+          <t>30 Sep 87</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>9.2111</v>
+        <v>9.475</v>
       </c>
       <c r="C143" t="n">
-        <v>8.875</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 87</t>
+          <t>30 Jun 87</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>10.6607</v>
+        <v>9.2111</v>
       </c>
       <c r="C144" t="n">
-        <v>9.875</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 86</t>
+          <t>31 Mar 87</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>10.7188</v>
+        <v>10.6607</v>
       </c>
       <c r="C145" t="n">
-        <v>10.875</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 86</t>
+          <t>31 Dec 86</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>9.875</v>
+        <v>10.7188</v>
       </c>
       <c r="C146" t="n">
-        <v>9.875</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 86</t>
+          <t>30 Sep 86</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>10.3353</v>
+        <v>9.875</v>
       </c>
       <c r="C147" t="n">
         <v>9.875</v>
@@ -2274,24 +2274,24 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 86</t>
+          <t>30 Jun 86</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>12.1127</v>
+        <v>10.3353</v>
       </c>
       <c r="C148" t="n">
-        <v>11.375</v>
+        <v>9.875</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 85</t>
+          <t>31 Mar 86</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>11.375</v>
+        <v>12.1127</v>
       </c>
       <c r="C149" t="n">
         <v>11.375</v>
@@ -2300,11 +2300,11 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 85</t>
+          <t>31 Dec 85</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>11.5827</v>
+        <v>11.375</v>
       </c>
       <c r="C150" t="n">
         <v>11.375</v>
@@ -2313,115 +2313,115 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 85</t>
+          <t>30 Sep 85</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>12.4734</v>
+        <v>11.5827</v>
       </c>
       <c r="C151" t="n">
-        <v>12.375</v>
+        <v>11.375</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 85</t>
+          <t>30 Jun 85</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>12.9226</v>
+        <v>12.4734</v>
       </c>
       <c r="C152" t="n">
-        <v>12.875</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 84</t>
+          <t>31 Mar 85</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>9.984400000000001</v>
+        <v>12.9226</v>
       </c>
       <c r="C153" t="n">
-        <v>9.5</v>
+        <v>12.875</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 84</t>
+          <t>31 Dec 84</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>10.9023</v>
+        <v>9.984400000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 84</t>
+          <t>30 Sep 84</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>8.8545</v>
+        <v>10.9023</v>
       </c>
       <c r="C155" t="n">
-        <v>8.875</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 84</t>
+          <t>30 Jun 84</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8.9414</v>
+        <v>8.8545</v>
       </c>
       <c r="C156" t="n">
-        <v>8.5625</v>
+        <v>8.875</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 83</t>
+          <t>31 Mar 84</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>9.0625</v>
+        <v>8.9414</v>
       </c>
       <c r="C157" t="n">
-        <v>9.0625</v>
+        <v>8.5625</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 83</t>
+          <t>31 Dec 83</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>9.560600000000001</v>
+        <v>9.0625</v>
       </c>
       <c r="C158" t="n">
-        <v>9.5625</v>
+        <v>9.0625</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 83</t>
+          <t>30 Sep 83</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>10.0051</v>
+        <v>9.560600000000001</v>
       </c>
       <c r="C159" t="n">
         <v>9.5625</v>
@@ -2430,115 +2430,115 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 83</t>
+          <t>30 Jun 83</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10.8145</v>
+        <v>10.0051</v>
       </c>
       <c r="C160" t="n">
-        <v>10.5625</v>
+        <v>9.5625</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 82</t>
+          <t>31 Mar 83</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>9.675800000000001</v>
+        <v>10.8145</v>
       </c>
       <c r="C161" t="n">
-        <v>10</v>
+        <v>10.5625</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 82</t>
+          <t>31 Dec 82</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>11.3538</v>
+        <v>9.675800000000001</v>
       </c>
       <c r="C162" t="n">
-        <v>10.125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 82</t>
+          <t>30 Sep 82</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>13.002</v>
+        <v>11.3538</v>
       </c>
       <c r="C163" t="n">
-        <v>12.625</v>
+        <v>10.125</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 82</t>
+          <t>30 Jun 82</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>13.7758</v>
+        <v>13.002</v>
       </c>
       <c r="C164" t="n">
-        <v>13.25</v>
+        <v>12.625</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 81</t>
+          <t>31 Mar 82</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>14.6113</v>
+        <v>13.7758</v>
       </c>
       <c r="C165" t="n">
-        <v>14.375</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 81</t>
+          <t>31 Dec 81</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>12.5254</v>
+        <v>14.6113</v>
       </c>
       <c r="C166" t="n">
-        <v>14</v>
+        <v>14.375</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 81</t>
+          <t>30 Sep 81</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>12</v>
+        <v>12.5254</v>
       </c>
       <c r="C167" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 81</t>
+          <t>30 Jun 81</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>13.5238</v>
+        <v>12</v>
       </c>
       <c r="C168" t="n">
         <v>12</v>
@@ -2547,46 +2547,46 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 80</t>
+          <t>31 Mar 81</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>15.2188</v>
+        <v>13.5238</v>
       </c>
       <c r="C169" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 80</t>
+          <t>31 Dec 80</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>16.0308</v>
+        <v>15.2188</v>
       </c>
       <c r="C170" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 80</t>
+          <t>30 Sep 80</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>17</v>
+        <v>16.0308</v>
       </c>
       <c r="C171" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 80</t>
+          <t>30 Jun 80</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2599,11 +2599,11 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 79</t>
+          <t>31 Mar 80</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>15.4531</v>
+        <v>17</v>
       </c>
       <c r="C173" t="n">
         <v>17</v>
@@ -2612,24 +2612,24 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 79</t>
+          <t>31 Dec 79</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>14</v>
+        <v>15.4531</v>
       </c>
       <c r="C174" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 79</t>
+          <t>30 Sep 79</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>12.4754</v>
+        <v>14</v>
       </c>
       <c r="C175" t="n">
         <v>14</v>
@@ -2638,50 +2638,50 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 79</t>
+          <t>30 Jun 79</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>13.0234</v>
+        <v>12.4754</v>
       </c>
       <c r="C176" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 78</t>
+          <t>31 Mar 79</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>11.3889</v>
+        <v>13.0234</v>
       </c>
       <c r="C177" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 78</t>
+          <t>31 Dec 78</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>10</v>
+        <v>11.3889</v>
       </c>
       <c r="C178" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 78</t>
+          <t>30 Sep 78</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>8.567500000000001</v>
+        <v>10</v>
       </c>
       <c r="C179" t="n">
         <v>10</v>
@@ -2690,169 +2690,182 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 78</t>
+          <t>30 Jun 78</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6.5323</v>
+        <v>8.567500000000001</v>
       </c>
       <c r="C180" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 77</t>
+          <t>31 Mar 78</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5.8492</v>
+        <v>6.5323</v>
       </c>
       <c r="C181" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 77</t>
+          <t>31 Dec 77</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>7.2462</v>
+        <v>5.8492</v>
       </c>
       <c r="C182" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 77</t>
+          <t>30 Sep 77</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>8.3893</v>
+        <v>7.2462</v>
       </c>
       <c r="C183" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 77</t>
+          <t>30 Jun 77</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>12.2302</v>
+        <v>8.3893</v>
       </c>
       <c r="C184" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 76</t>
+          <t>31 Mar 77</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>14.7227</v>
+        <v>12.2302</v>
       </c>
       <c r="C185" t="n">
-        <v>14.25</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 76</t>
+          <t>31 Dec 76</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>11.8231</v>
+        <v>14.7227</v>
       </c>
       <c r="C186" t="n">
-        <v>13</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 76</t>
+          <t>30 Sep 76</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>10.5726</v>
+        <v>11.8231</v>
       </c>
       <c r="C187" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>31 Mar 76</t>
+          <t>30 Jun 76</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>9.8164</v>
+        <v>10.5726</v>
       </c>
       <c r="C188" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>31 Dec 75</t>
+          <t>31 Mar 76</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>11.7383</v>
+        <v>9.8164</v>
       </c>
       <c r="C189" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>30 Sep 75</t>
+          <t>31 Dec 75</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>10.7077</v>
+        <v>11.7383</v>
       </c>
       <c r="C190" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>30 Jun 75</t>
+          <t>30 Sep 75</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>9.960900000000001</v>
+        <v>10.7077</v>
       </c>
       <c r="C191" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
+          <t>30 Jun 75</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>9.960900000000001</v>
+      </c>
+      <c r="C192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
           <t>31 Mar 75</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B193" t="n">
         <v>10.2632</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C193" t="n">
         <v>10</v>
       </c>
     </row>
